--- a/docs/Compte rendue.xlsx
+++ b/docs/Compte rendue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyril\Documents\Project_Red\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyril\Desktop\Projet_Redd\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B28453-72C4-43B8-ACAC-F0AC8A3E9200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F17A97-999E-4FFF-AFB9-DE288C57D8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{27543865-813A-466A-BE7F-002EC22DC17A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
   <si>
     <t>Projet Red</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Bonus</t>
   </si>
   <si>
-    <t>Bonus 1</t>
-  </si>
-  <si>
     <t>Bonus 2</t>
   </si>
   <si>
@@ -262,6 +259,18 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Optimisation du code</t>
+  </si>
+  <si>
+    <t>Bonus 1.1</t>
+  </si>
+  <si>
+    <t>Bonus 1.2</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -477,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -627,6 +636,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,7 +773,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1400" baseline="0"/>
-            <a:t>  - Cyril, s'occupe d'assembler les différentes parties de code et de debugger le jeu.</a:t>
+            <a:t>  - Cyril, s'occupe de gére l'avancer du projet et d'assembler les différentes parties de code et de debugger le jeu.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -779,7 +791,110 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1400" baseline="0"/>
-            <a:t>Remarque :</a:t>
+            <a:t>Conclusion:</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Le projet Red a été une excellente expérience, qui nous a </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>permis de nous plonger dans une situation similaire au </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>monde professionnel. Qui nous a apportés de nouvelles </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>compétences comme la gestion d'équipe, gestion des délais</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,... Le fait de travailler en équipe nous a permis d'apprendre à gérer les différents conflits liés à la façon de travailler, de</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>penser, ...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0"/>
+            <a:t>Pour conclure ce projet m'a pour ma part enrichie en softs skills mais aussi dans le domaine de la programmation.</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1400"/>
         </a:p>
@@ -1089,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B979628-A324-42B0-911E-5DCBA4100F97}">
   <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:H39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="61" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1406,13 +1521,13 @@
         <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
@@ -1451,13 +1566,13 @@
         <v>22</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
@@ -1496,13 +1611,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
@@ -1541,13 +1656,13 @@
         <v>24</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="I12" s="45"/>
       <c r="J12" s="45"/>
@@ -1586,13 +1701,13 @@
         <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
@@ -1631,13 +1746,13 @@
         <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
@@ -1676,13 +1791,13 @@
         <v>27</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
@@ -1721,13 +1836,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="45"/>
@@ -1766,13 +1881,13 @@
         <v>29</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
@@ -1811,13 +1926,13 @@
         <v>30</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="45"/>
@@ -1856,13 +1971,13 @@
         <v>32</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
@@ -1901,13 +2016,13 @@
         <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="45"/>
@@ -1983,13 +2098,13 @@
         <v>39</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
@@ -2028,13 +2143,13 @@
         <v>40</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
@@ -2073,13 +2188,13 @@
         <v>41</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
@@ -2118,13 +2233,13 @@
         <v>42</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
@@ -2163,13 +2278,13 @@
         <v>43</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="45"/>
@@ -2208,13 +2323,13 @@
         <v>45</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="45"/>
@@ -2290,13 +2405,13 @@
         <v>51</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
@@ -2335,13 +2450,13 @@
         <v>52</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
@@ -2380,13 +2495,13 @@
         <v>53</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="45"/>
@@ -2425,13 +2540,13 @@
         <v>54</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="45"/>
@@ -2470,13 +2585,13 @@
         <v>55</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="45"/>
@@ -2552,10 +2667,14 @@
         <v>60</v>
       </c>
       <c r="F35" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
+      <c r="H35" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="I35" s="45"/>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -2593,13 +2712,13 @@
         <v>61</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="45"/>
       <c r="J36" s="45"/>
@@ -2638,13 +2757,13 @@
         <v>62</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I37" s="45"/>
       <c r="J37" s="45"/>
@@ -2683,10 +2802,14 @@
         <v>63</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="61" t="s">
+        <v>78</v>
+      </c>
       <c r="I38" s="45"/>
       <c r="J38" s="45"/>
       <c r="K38" s="45"/>
@@ -2755,19 +2878,19 @@
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
       <c r="D40" s="24" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>70</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I40" s="45"/>
       <c r="J40" s="45"/>
@@ -2795,24 +2918,24 @@
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
     </row>
-    <row r="41" spans="1:33" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="45"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
-      <c r="D41" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="29" t="s">
+      <c r="D41" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="31" t="s">
-        <v>75</v>
+      <c r="H41" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="I41" s="45"/>
       <c r="J41" s="45"/>
@@ -2840,15 +2963,25 @@
       <c r="AF41" s="32"/>
       <c r="AG41" s="32"/>
     </row>
-    <row r="42" spans="1:33" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:33" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="D42" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="I42" s="45"/>
       <c r="J42" s="45"/>
       <c r="K42" s="45"/>
@@ -2875,7 +3008,7 @@
       <c r="AF42" s="32"/>
       <c r="AG42" s="32"/>
     </row>
-    <row r="43" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:33" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
@@ -3856,10 +3989,9 @@
       <c r="AG70" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="AA1:AG70"/>
     <mergeCell ref="A58:Z70"/>
-    <mergeCell ref="D42:H42"/>
     <mergeCell ref="A43:Z57"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D34:H34"/>
